--- a/Roosters.xlsx
+++ b/Roosters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed7ddb0f93942e2/Bureaublad/Programmeren/Roosteraar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{9AD7F6EA-216E-477D-9B1F-E7451ED19AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DE6B1C-208F-4C51-9F56-40595B1F7D85}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{9AD7F6EA-216E-477D-9B1F-E7451ED19AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFCF9026-B7BD-45C5-AFE3-A62B89617B39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0639D463-8122-4014-BD61-4205C117E792}"/>
   </bookViews>
@@ -452,103 +452,103 @@
     <t>Selectie:</t>
   </si>
   <si>
-    <t>64,9,110,79,83,54,58,91,95,31</t>
+    <t>97,101,71,45,113,19,21,54,117,85</t>
   </si>
   <si>
-    <t>64,32,9,43,79,115,83,54,91,95</t>
+    <t>98,100,69,74,45,114,115,85,54,22</t>
   </si>
   <si>
-    <t>32,104,9,79,47,84,54,119,120,58</t>
+    <t>96,65,64,102,113,81,23,54,87,121</t>
   </si>
   <si>
-    <t>32,96,44,79,21,54,119,120,58,93</t>
+    <t>66,98,73,45,17,114,118,55,24,88</t>
   </si>
   <si>
-    <t>96,39,9,41,108,77,55,88,91,60</t>
+    <t>89,97,67,69,76,113,20,120,25,56</t>
   </si>
   <si>
-    <t>99,37,41,77,113,55,88,59,60,93</t>
+    <t>100,68,70,38,74,18,114,21,57,122</t>
   </si>
   <si>
-    <t>58,6,103,77,109,45,48,23,88,122</t>
+    <t>97,101,72,75,82,51,22,55,89,124</t>
   </si>
   <si>
-    <t>35,104,41,77,46,111,23,88,92,61</t>
+    <t>64,66,102,42,77,17,52,23,56,95</t>
   </si>
   <si>
-    <t>5,38,104,75,61,54,88,90,59,93</t>
+    <t>67,73,45,113,19,86,120,57,58,24</t>
   </si>
   <si>
-    <t>32,41,10,75,112,17,86,55,89,93</t>
+    <t>98,70,114,84,20,87,55,25,123,125</t>
   </si>
   <si>
-    <t>65,34,26,101,8,105,43,114,122,59</t>
+    <t>65,101,39,71,75,15,50,88,56,61</t>
   </si>
   <si>
-    <t>99,74,75,51,55,87,23,57,90,29</t>
+    <t>3,68,105,14,83,51,121,90,62,95</t>
   </si>
   <si>
-    <t>65,4,8,105,73,11,18,118,94,63</t>
+    <t>89,35,100,6,40,72,18,21,57,63</t>
   </si>
   <si>
-    <t>34,104,75,43,30,87,23,25,90,94</t>
+    <t>96,104,73,8,13,78,47,52,119,94</t>
   </si>
   <si>
-    <t>0,68,101,106,13,17,53,119,121,57</t>
+    <t>0,34,102,41,75,110,17,49,22,27</t>
   </si>
   <si>
-    <t>38,10,74,76,49,86,87,25,92,30</t>
+    <t>64,97,66,2,79,116,55,87,24,29</t>
   </si>
   <si>
-    <t>1,98,8,104,107,44,116,57,90,62</t>
+    <t>36,69,7,74,43,10,107,20,88,91</t>
   </si>
   <si>
-    <t>69,72,40,76,15,19,22,87,26,92</t>
+    <t>1,67,102,12,76,46,51,56,25,92</t>
   </si>
   <si>
-    <t>68,102,103,107,44,51,89,29,62,57</t>
+    <t>70,9,106,44,19,118,58,28,93,95</t>
   </si>
   <si>
-    <t>4,7,72,12,76,82,18,117,87,30</t>
+    <t>65,98,4,37,72,73,11,47,52,23</t>
   </si>
   <si>
-    <t>1,36,102,103,73,43,49,89,28,94</t>
+    <t>100,68,42,77,111,119,53,87,26,62</t>
   </si>
   <si>
-    <t>33,7,27,107,78,82,119,121,59,29</t>
+    <t>5,101,71,103,74,48,80,88,57,124</t>
   </si>
   <si>
-    <t>97,69,37,42,80,20,52,89,92,57</t>
+    <t>0,96,34,41,11,16,23,90,30,63</t>
   </si>
   <si>
-    <t>33,2,70,105,10,107,78,118,29,63</t>
+    <t>32,35,6,75,108,81,17,51,116,89</t>
   </si>
   <si>
-    <t>67,40,42,45,81,20,84,118,24,92</t>
+    <t>64,1,96,68,10,43,46,52,54,24</t>
   </si>
   <si>
-    <t>33,98,66,3,105,78,53,55,123,29</t>
+    <t>2,100,69,7,109,14,82,20,117,91</t>
   </si>
   <si>
-    <t>70,7,27,105,42,91,81,118,59,30</t>
+    <t>67,36,40,75,48,21,56,59,28,94</t>
   </si>
   <si>
-    <t>97,66,33,40,106,50,19,23,124,94</t>
+    <t>97,70,9,12,112,19,84,87,122,125</t>
   </si>
   <si>
-    <t>3,103,71,10,42,45,78,80,85,58</t>
+    <t>65,3,102,39,71,49,51,22,55,29</t>
   </si>
   <si>
-    <t>100,71,7,40,106,50,30,119,28,94</t>
+    <t>98,4,37,73,13,92,83,89,123,60</t>
   </si>
   <si>
-    <t>33,2,67,103,39,76,14,16,56,123,93</t>
+    <t>8,72,45,113,18,52,86,25,93,95</t>
   </si>
   <si>
-    <t>100,106,44,45,16,52,85,118,56,24,124</t>
+    <t>66,101,74,50,114,115,88,57,61,31</t>
   </si>
   <si>
-    <t>SC</t>
+    <t>NEV</t>
   </si>
 </sst>
 </file>
@@ -596,47 +596,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -651,6 +623,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,7 +949,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1002,7 +978,7 @@
       </c>
       <c r="F1">
         <f>33-COUNTBLANK(F3:F34)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1022,10 +998,10 @@
       </c>
       <c r="E2" t="str">
         <f>IF(B$1="Klas",D2,C2)</f>
-        <v>BC</v>
+        <v>1LATA</v>
       </c>
       <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2:F4">_xlfn.UNIQUE(Lessen!B1:B625)</f>
+        <f t="array" ref="F2:F10">_xlfn.UNIQUE(Lessen!B1:B625)</f>
         <v>/nope/</v>
       </c>
       <c r="H2" s="2"/>
@@ -1045,29 +1021,29 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(B$1="Klas",D3,C3)</f>
-        <v>BH</v>
+        <v>1LATB</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="str" cm="1">
         <f t="array" ref="I3">IF(Rooster!B1&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B1+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="J3" s="3" t="str" cm="1">
+        <v>WIS</v>
+      </c>
+      <c r="J3" t="str" cm="1">
         <f t="array" ref="J3">IF(Rooster!B8&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B8+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="K3" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="K3" t="str" cm="1">
         <f t="array" ref="K3">IF(Rooster!B15&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B15+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="L3" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="L3" t="str" cm="1">
         <f t="array" ref="L3">IF(Rooster!B19&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B19+1,1),"")</f>
-        <v>LAT</v>
-      </c>
-      <c r="M3" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="M3" t="str" cm="1">
         <f t="array" ref="M3">IF(Rooster!B26&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B26+1,1),"")</f>
         <v/>
       </c>
@@ -1082,31 +1058,31 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>CK</v>
+        <v>1LATE</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="str" cm="1">
         <f t="array" ref="I4">IF(Rooster!B2&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B2+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="J4" s="3" t="str" cm="1">
+        <v>WIS</v>
+      </c>
+      <c r="J4" t="str" cm="1">
         <f t="array" ref="J4">IF(Rooster!B9&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B9+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="K4" s="3" t="str" cm="1">
+        <v>WIS</v>
+      </c>
+      <c r="K4" t="str" cm="1">
         <f t="array" ref="K4">IF(Rooster!B16&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B16+1,1),"")</f>
         <v/>
       </c>
-      <c r="L4" s="3" t="str" cm="1">
+      <c r="L4" t="str" cm="1">
         <f t="array" ref="L4">IF(Rooster!B20&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B20+1,1),"")</f>
         <v/>
       </c>
-      <c r="M4" s="3" t="str" cm="1">
+      <c r="M4" t="str" cm="1">
         <f t="array" ref="M4">IF(Rooster!B27&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B27+1,1),"")</f>
-        <v/>
+        <v>NWET</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1119,26 +1095,29 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>DSG</v>
+        <v>1LATC</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="str" cm="1">
         <f t="array" ref="I5">IF(Rooster!B3&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B3+1,1),"")</f>
         <v/>
       </c>
-      <c r="J5" s="3" t="str" cm="1">
+      <c r="J5" t="str" cm="1">
         <f t="array" ref="J5">IF(Rooster!B10&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B10+1,1),"")</f>
         <v/>
       </c>
-      <c r="K5" s="3" t="str" cm="1">
+      <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">IF(Rooster!B17&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B17+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="L5" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">IF(Rooster!B21&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B21+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="M5" t="str" cm="1">
         <f t="array" ref="M5">IF(Rooster!B28&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B28+1,1),"")</f>
         <v/>
       </c>
@@ -1153,28 +1132,31 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>KE</v>
+        <v>1LATD</v>
+      </c>
+      <c r="F6">
+        <v>41</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="str" cm="1">
         <f t="array" ref="I6">IF(Rooster!B4&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B4+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="J6" s="3" t="str" cm="1">
+        <v>WIS</v>
+      </c>
+      <c r="J6" t="str" cm="1">
         <f t="array" ref="J6">IF(Rooster!B11&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B11+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="K6" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="K6" t="str" cm="1">
         <f t="array" ref="K6">IF(Rooster!B18&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B18+1,1),"")</f>
         <v/>
       </c>
-      <c r="L6" s="3" t="str" cm="1">
+      <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">IF(Rooster!B22&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B22+1,1),"")</f>
         <v/>
       </c>
-      <c r="M6" s="3" t="str" cm="1">
+      <c r="M6" t="str" cm="1">
         <f t="array" ref="M6">IF(Rooster!B29&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B29+1,1),"")</f>
-        <v/>
+        <v>NWET</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -1187,23 +1169,26 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>LR</v>
+        <v/>
+      </c>
+      <c r="F7">
+        <v>42</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="str" cm="1">
         <f t="array" ref="I7">IF(Rooster!B5&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B5+1,1),"")</f>
         <v/>
       </c>
-      <c r="J7" s="3" t="str" cm="1">
+      <c r="J7" t="str" cm="1">
         <f t="array" ref="J7">IF(Rooster!B12&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B12+1,1),"")</f>
-        <v>LAT</v>
+        <v/>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="3" t="str" cm="1">
+      <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">IF(Rooster!B23&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B23+1,1),"")</f>
-        <v>LAT</v>
-      </c>
-      <c r="M7" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="M7" t="str" cm="1">
         <f t="array" ref="M7">IF(Rooster!B30&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B30+1,1),"")</f>
         <v/>
       </c>
@@ -1218,25 +1203,28 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>MD</v>
+        <v>2LATB</v>
+      </c>
+      <c r="F8">
+        <v>43</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="str" cm="1">
         <f t="array" ref="I8">IF(Rooster!B6&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B6+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="J8" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="J8" t="str" cm="1">
         <f t="array" ref="J8">IF(Rooster!B13&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B13+1,1),"")</f>
-        <v/>
+        <v>NWET</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="3" t="str" cm="1">
+      <c r="L8" t="str" cm="1">
         <f t="array" ref="L8">IF(Rooster!B24&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B24+1,1),"")</f>
         <v/>
       </c>
-      <c r="M8" s="3" t="str" cm="1">
+      <c r="M8" t="str" cm="1">
         <f t="array" ref="M8">IF(Rooster!B31&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B31+1,1),"")</f>
-        <v/>
+        <v>WIS</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -1249,25 +1237,28 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>NEV</v>
+        <v>2LATC</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="str" cm="1">
         <f t="array" ref="I9">IF(Rooster!B7&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B7+1,1),"")</f>
         <v/>
       </c>
-      <c r="J9" s="3" t="str" cm="1">
+      <c r="J9" t="str" cm="1">
         <f t="array" ref="J9">IF(Rooster!B14&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B14+1,1),"")</f>
         <v/>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="3" t="str" cm="1">
+      <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">IF(Rooster!B25&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B25+1,1),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="3" t="str" cm="1">
+        <v>NWET</v>
+      </c>
+      <c r="M9" t="str" cm="1">
         <f t="array" ref="M9">IF(Rooster!B32&lt;&gt;-1,INDEX(Lessen!D$1:D$625,Rooster!B32+1,1),"")</f>
-        <v>LAT</v>
+        <v/>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -1280,7 +1271,10 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>PM</v>
+        <v>2LATD</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1299,7 +1293,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>SC</v>
+        <v>2LATE</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1311,7 +1305,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>SE</v>
+        <v>2LATA</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1323,7 +1317,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>SK</v>
+        <v>2GLAA</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1333,99 +1327,99 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>SN</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" t="str">
         <v>UK</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>UK</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" t="str">
         <v>VBI</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>VBI</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="str">
         <v>VCS</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>VCS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="str">
         <v>VDA</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>VDA</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="str">
         <v>VDMB</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>VDMB</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="str">
         <v>VHE</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>VHE</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="str">
         <v>VHUE</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>VHUE</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="str">
         <v>VM</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>VM</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="str">
         <v>VMS</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>VMS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="str">
         <v/>
       </c>
-      <c r="E24" t="str">
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
@@ -2503,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AA4C7E-C3E7-48E9-8F8C-61D08D462F51}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2522,38 +2516,38 @@
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C1:BA1,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="C1" t="str" cm="1">
         <f t="array" ref="C1:L1">IF(A1="","",_xlfn.TEXTSPLIT(A1,","))</f>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D1" t="str">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E1" t="str">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="F1" t="str">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G1" t="str">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H1" t="str">
+        <v>19</v>
+      </c>
+      <c r="I1" t="str">
+        <v>21</v>
+      </c>
+      <c r="J1" t="str">
         <v>54</v>
       </c>
-      <c r="I1" t="str">
-        <v>58</v>
-      </c>
-      <c r="J1" t="str">
-        <v>91</v>
-      </c>
       <c r="K1" t="str">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="L1" t="str">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2562,38 +2556,38 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C2:BA2,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:L2">IF(A2="","",_xlfn.TEXTSPLIT(A2,","))</f>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D2" t="str">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E2" t="str">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F2" t="str">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G2" t="str">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H2" t="str">
+        <v>114</v>
+      </c>
+      <c r="I2" t="str">
         <v>115</v>
       </c>
-      <c r="I2" t="str">
-        <v>83</v>
-      </c>
       <c r="J2" t="str">
+        <v>85</v>
+      </c>
+      <c r="K2" t="str">
         <v>54</v>
       </c>
-      <c r="K2" t="str">
-        <v>91</v>
-      </c>
       <c r="L2" t="str">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2606,34 +2600,34 @@
       </c>
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3:L3">IF(A3="","",_xlfn.TEXTSPLIT(A3,","))</f>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D3" t="str">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="E3" t="str">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F3" t="str">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G3" t="str">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H3" t="str">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I3" t="str">
+        <v>23</v>
+      </c>
+      <c r="J3" t="str">
         <v>54</v>
       </c>
-      <c r="J3" t="str">
-        <v>119</v>
-      </c>
       <c r="K3" t="str">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L3" t="str">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2642,38 +2636,38 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C4:BA4,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="C4" t="str" cm="1">
         <f t="array" ref="C4:L4">IF(A4="","",_xlfn.TEXTSPLIT(A4,","))</f>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D4" t="str">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" t="str">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F4" t="str">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G4" t="str">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="str">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="I4" t="str">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" t="str">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="K4" t="str">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="L4" t="str">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2686,34 +2680,34 @@
       </c>
       <c r="C5" t="str" cm="1">
         <f t="array" ref="C5:L5">IF(A5="","",_xlfn.TEXTSPLIT(A5,","))</f>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D5" t="str">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E5" t="str">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F5" t="str">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G5" t="str">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H5" t="str">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="I5" t="str">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J5" t="str">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K5" t="str">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="L5" t="str">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2722,38 +2716,38 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C6:BA6,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="C6" t="str" cm="1">
         <f t="array" ref="C6:L6">IF(A6="","",_xlfn.TEXTSPLIT(A6,","))</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" t="str">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E6" t="str">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F6" t="str">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G6" t="str">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="H6" t="str">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I6" t="str">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J6" t="str">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K6" t="str">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L6" t="str">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2766,34 +2760,34 @@
       </c>
       <c r="C7" t="str" cm="1">
         <f t="array" ref="C7:L7">IF(A7="","",_xlfn.TEXTSPLIT(A7,","))</f>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D7" t="str">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E7" t="str">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F7" t="str">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" t="str">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="H7" t="str">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I7" t="str">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J7" t="str">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K7" t="str">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="str">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2802,38 +2796,38 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C8:BA8,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="C8" t="str" cm="1">
         <f t="array" ref="C8:L8">IF(A8="","",_xlfn.TEXTSPLIT(A8,","))</f>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="E8" t="str">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F8" t="str">
+        <v>42</v>
+      </c>
+      <c r="G8" t="str">
         <v>77</v>
       </c>
-      <c r="G8" t="str">
-        <v>46</v>
-      </c>
       <c r="H8" t="str">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I8" t="str">
+        <v>52</v>
+      </c>
+      <c r="J8" t="str">
         <v>23</v>
       </c>
-      <c r="J8" t="str">
-        <v>88</v>
-      </c>
       <c r="K8" t="str">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L8" t="str">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2842,38 +2836,38 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C9:BA9,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" ref="C9:L9">IF(A9="","",_xlfn.TEXTSPLIT(A9,","))</f>
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D9" t="str">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E9" t="str">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F9" t="str">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G9" t="str">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H9" t="str">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I9" t="str">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J9" t="str">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="K9" t="str">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" t="str">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2886,34 +2880,34 @@
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" ref="C10:L10">IF(A10="","",_xlfn.TEXTSPLIT(A10,","))</f>
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D10" t="str">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E10" t="str">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F10" t="str">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G10" t="str">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="H10" t="str">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I10" t="str">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J10" t="str">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K10" t="str">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="L10" t="str">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2922,38 +2916,38 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C11:BA11,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" ref="C11:L11">IF(A11="","",_xlfn.TEXTSPLIT(A11,","))</f>
         <v>65</v>
       </c>
       <c r="D11" t="str">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E11" t="str">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F11" t="str">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G11" t="str">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H11" t="str">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I11" t="str">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J11" t="str">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="K11" t="str">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="L11" t="str">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2962,38 +2956,38 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" ref="B12">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C12:BA12,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="str" cm="1">
         <f t="array" ref="C12:L12">IF(A12="","",_xlfn.TEXTSPLIT(A12,","))</f>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D12" t="str">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" t="str">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F12" t="str">
+        <v>14</v>
+      </c>
+      <c r="G12" t="str">
+        <v>83</v>
+      </c>
+      <c r="H12" t="str">
         <v>51</v>
       </c>
-      <c r="G12" t="str">
-        <v>55</v>
-      </c>
-      <c r="H12" t="str">
-        <v>87</v>
-      </c>
       <c r="I12" t="str">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="J12" t="str">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K12" t="str">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="L12" t="str">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -3002,35 +2996,35 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C13:BA13,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="C13" t="str" cm="1">
         <f t="array" ref="C13:L13">IF(A13="","",_xlfn.TEXTSPLIT(A13,","))</f>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D13" t="str">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E13" t="str">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F13" t="str">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="G13" t="str">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H13" t="str">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I13" t="str">
         <v>18</v>
       </c>
       <c r="J13" t="str">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="K13" t="str">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="L13" t="str">
         <v>63</v>
@@ -3046,31 +3040,31 @@
       </c>
       <c r="C14" t="str" cm="1">
         <f t="array" ref="C14:L14">IF(A14="","",_xlfn.TEXTSPLIT(A14,","))</f>
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D14" t="str">
         <v>104</v>
       </c>
       <c r="E14" t="str">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" t="str">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G14" t="str">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H14" t="str">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I14" t="str">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J14" t="str">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K14" t="str">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="L14" t="str">
         <v>94</v>
@@ -3082,38 +3076,38 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C15:BA15,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="C15" t="str" cm="1">
         <f t="array" ref="C15:L15">IF(A15="","",_xlfn.TEXTSPLIT(A15,","))</f>
         <v>0</v>
       </c>
       <c r="D15" t="str">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E15" t="str">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" t="str">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="G15" t="str">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="H15" t="str">
+        <v>110</v>
+      </c>
+      <c r="I15" t="str">
         <v>17</v>
       </c>
-      <c r="I15" t="str">
-        <v>53</v>
-      </c>
       <c r="J15" t="str">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="K15" t="str">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="L15" t="str">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3126,77 +3120,77 @@
       </c>
       <c r="C16" t="str" cm="1">
         <f t="array" ref="C16:L16">IF(A16="","",_xlfn.TEXTSPLIT(A16,","))</f>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D16" t="str">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E16" t="str">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F16" t="str">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="G16" t="str">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H16" t="str">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="I16" t="str">
+        <v>55</v>
+      </c>
+      <c r="J16" t="str">
         <v>87</v>
       </c>
-      <c r="J16" t="str">
-        <v>25</v>
-      </c>
       <c r="K16" t="str">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="L16" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C17:BA17,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="C17" t="str" cm="1">
         <f t="array" ref="C17:L17">IF(A17="","",_xlfn.TEXTSPLIT(A17,","))</f>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D17" t="str">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E17" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="str">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G17" t="str">
+        <v>43</v>
+      </c>
+      <c r="H17" t="str">
+        <v>10</v>
+      </c>
+      <c r="I17" t="str">
         <v>107</v>
       </c>
-      <c r="H17" t="str">
-        <v>44</v>
-      </c>
-      <c r="I17" t="str">
-        <v>116</v>
-      </c>
       <c r="J17" t="str">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="K17" t="str">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L17" t="str">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -3206,77 +3200,77 @@
       </c>
       <c r="C18" t="str" cm="1">
         <f t="array" ref="C18:L18">IF(A18="","",_xlfn.TEXTSPLIT(A18,","))</f>
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D18" t="str">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" t="str">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F18" t="str">
+        <v>12</v>
+      </c>
+      <c r="G18" t="str">
         <v>76</v>
       </c>
-      <c r="G18" t="str">
-        <v>15</v>
-      </c>
       <c r="H18" t="str">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I18" t="str">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J18" t="str">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K18" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" t="str">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>148</v>
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C19:BA19,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C19" t="str" cm="1">
         <f t="array" ref="C19:L19">IF(A19="","",_xlfn.TEXTSPLIT(A19,","))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="str">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="E19" t="str">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19" t="str">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G19" t="str">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H19" t="str">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="I19" t="str">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J19" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" t="str">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="L19" t="str">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -3286,77 +3280,77 @@
       </c>
       <c r="C20" t="str" cm="1">
         <f t="array" ref="C20:L20">IF(A20="","",_xlfn.TEXTSPLIT(A20,","))</f>
+        <v>65</v>
+      </c>
+      <c r="D20" t="str">
+        <v>98</v>
+      </c>
+      <c r="E20" t="str">
         <v>4</v>
       </c>
-      <c r="D20" t="str">
-        <v>7</v>
-      </c>
-      <c r="E20" t="str">
+      <c r="F20" t="str">
+        <v>37</v>
+      </c>
+      <c r="G20" t="str">
         <v>72</v>
       </c>
-      <c r="F20" t="str">
-        <v>12</v>
-      </c>
-      <c r="G20" t="str">
-        <v>76</v>
-      </c>
       <c r="H20" t="str">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I20" t="str">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J20" t="str">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="K20" t="str">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="L20" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C21:BA21,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="C21" t="str" cm="1">
         <f t="array" ref="C21:L21">IF(A21="","",_xlfn.TEXTSPLIT(A21,","))</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D21" t="str">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E21" t="str">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="F21" t="str">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G21" t="str">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="H21" t="str">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I21" t="str">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J21" t="str">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K21" t="str">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -3366,77 +3360,77 @@
       </c>
       <c r="C22" t="str" cm="1">
         <f t="array" ref="C22:L22">IF(A22="","",_xlfn.TEXTSPLIT(A22,","))</f>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D22" t="str">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E22" t="str">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F22" t="str">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" t="str">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H22" t="str">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I22" t="str">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="J22" t="str">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="K22" t="str">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L22" t="str">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
       <c r="B23" cm="1">
         <f t="array" ref="B23">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C23:BA23,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C23" t="str" cm="1">
         <f t="array" ref="C23:L23">IF(A23="","",_xlfn.TEXTSPLIT(A23,","))</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D23" t="str">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E23" t="str">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" t="str">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="str">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H23" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23" t="str">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J23" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="str">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="L23" t="str">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -3446,77 +3440,77 @@
       </c>
       <c r="C24" t="str" cm="1">
         <f t="array" ref="C24:L24">IF(A24="","",_xlfn.TEXTSPLIT(A24,","))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="str">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E24" t="str">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F24" t="str">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G24" t="str">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="H24" t="str">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I24" t="str">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J24" t="str">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="K24" t="str">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="L24" t="str">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>154</v>
       </c>
       <c r="B25" cm="1">
         <f t="array" ref="B25">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C25:BA25,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="C25" t="str" cm="1">
         <f t="array" ref="C25:L25">IF(A25="","",_xlfn.TEXTSPLIT(A25,","))</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" t="str">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F25" t="str">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G25" t="str">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="H25" t="str">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I25" t="str">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J25" t="str">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="K25" t="str">
+        <v>54</v>
+      </c>
+      <c r="L25" t="str">
         <v>24</v>
       </c>
-      <c r="L25" t="str">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -3526,77 +3520,77 @@
       </c>
       <c r="C26" t="str" cm="1">
         <f t="array" ref="C26:L26">IF(A26="","",_xlfn.TEXTSPLIT(A26,","))</f>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D26" t="str">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" t="str">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26" t="str">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" t="str">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H26" t="str">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I26" t="str">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="J26" t="str">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K26" t="str">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L26" t="str">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>156</v>
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C27:BA27,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="C27" t="str" cm="1">
         <f t="array" ref="C27:L27">IF(A27="","",_xlfn.TEXTSPLIT(A27,","))</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D27" t="str">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E27" t="str">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F27" t="str">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G27" t="str">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H27" t="str">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I27" t="str">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J27" t="str">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="K27" t="str">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="L27" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -3609,74 +3603,74 @@
         <v>97</v>
       </c>
       <c r="D28" t="str">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E28" t="str">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F28" t="str">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G28" t="str">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H28" t="str">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I28" t="str">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J28" t="str">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="K28" t="str">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L28" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>158</v>
       </c>
       <c r="B29" cm="1">
         <f t="array" ref="B29">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C29:BA29,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="C29" t="str" cm="1">
         <f t="array" ref="C29:L29">IF(A29="","",_xlfn.TEXTSPLIT(A29,","))</f>
+        <v>65</v>
+      </c>
+      <c r="D29" t="str">
         <v>3</v>
       </c>
-      <c r="D29" t="str">
-        <v>103</v>
-      </c>
       <c r="E29" t="str">
+        <v>102</v>
+      </c>
+      <c r="F29" t="str">
+        <v>39</v>
+      </c>
+      <c r="G29" t="str">
         <v>71</v>
       </c>
-      <c r="F29" t="str">
-        <v>10</v>
-      </c>
-      <c r="G29" t="str">
-        <v>42</v>
-      </c>
       <c r="H29" t="str">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I29" t="str">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="J29" t="str">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K29" t="str">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="L29" t="str">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -3686,120 +3680,114 @@
       </c>
       <c r="C30" t="str" cm="1">
         <f t="array" ref="C30:L30">IF(A30="","",_xlfn.TEXTSPLIT(A30,","))</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" t="str">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E30" t="str">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F30" t="str">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G30" t="str">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="H30" t="str">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="I30" t="str">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="J30" t="str">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K30" t="str">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="L30" t="str">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>160</v>
       </c>
       <c r="B31" cm="1">
         <f t="array" ref="B31">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C31:BA31,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="C31" t="str" cm="1">
-        <f t="array" ref="C31:M31">IF(A31="","",_xlfn.TEXTSPLIT(A31,","))</f>
-        <v>33</v>
+        <f t="array" ref="C31:L31">IF(A31="","",_xlfn.TEXTSPLIT(A31,","))</f>
+        <v>8</v>
       </c>
       <c r="D31" t="str">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E31" t="str">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F31" t="str">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G31" t="str">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H31" t="str">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I31" t="str">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="J31" t="str">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K31" t="str">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="L31" t="str">
-        <v>123</v>
-      </c>
-      <c r="M31" t="str">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>161</v>
       </c>
       <c r="B32" cm="1">
         <f t="array" ref="B32">MAX(_xlfn.MAKEARRAY(UI!F$1,1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(COUNTIF(Rooster!C32:BA32,INDEX(UI!F$2:F$33,_xlpm.r,1))&gt;0,INDEX(UI!F$2:F$33,_xlpm.r,1)+1,0))))-1</f>
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="C32" t="str" cm="1">
-        <f t="array" ref="C32:M32">IF(A32="","",_xlfn.TEXTSPLIT(A32,","))</f>
-        <v>100</v>
+        <f t="array" ref="C32:L32">IF(A32="","",_xlfn.TEXTSPLIT(A32,","))</f>
+        <v>66</v>
       </c>
       <c r="D32" t="str">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E32" t="str">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F32" t="str">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G32" t="str">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H32" t="str">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="I32" t="str">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J32" t="str">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="K32" t="str">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L32" t="str">
-        <v>24</v>
-      </c>
-      <c r="M32" t="str">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4989,9 +4977,9 @@
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <f>IF(COUNTIF(C39:I39,UI!B$2)=0,"/nope/",ROW(A39)-1)</f>
-        <v>/nope/</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="str" cm="1">
         <f t="array" ref="C39:F39">IF(A39="","",_xlfn.TEXTSPLIT(A39,","))</f>
@@ -5019,9 +5007,9 @@
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <f>IF(COUNTIF(C40:I40,UI!B$2)=0,"/nope/",ROW(A40)-1)</f>
-        <v>/nope/</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="str" cm="1">
         <f t="array" ref="C40:F40">IF(A40="","",_xlfn.TEXTSPLIT(A40,","))</f>
@@ -5049,9 +5037,9 @@
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <f>IF(COUNTIF(C41:I41,UI!B$2)=0,"/nope/",ROW(A41)-1)</f>
-        <v>/nope/</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="str" cm="1">
         <f t="array" ref="C41:F41">IF(A41="","",_xlfn.TEXTSPLIT(A41,","))</f>
@@ -5079,9 +5067,9 @@
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <f>IF(COUNTIF(C42:I42,UI!B$2)=0,"/nope/",ROW(A42)-1)</f>
-        <v>/nope/</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="str" cm="1">
         <f t="array" ref="C42:F42">IF(A42="","",_xlfn.TEXTSPLIT(A42,","))</f>
@@ -5109,9 +5097,9 @@
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43">
         <f>IF(COUNTIF(C43:I43,UI!B$2)=0,"/nope/",ROW(A43)-1)</f>
-        <v>/nope/</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="str" cm="1">
         <f t="array" ref="C43:F43">IF(A43="","",_xlfn.TEXTSPLIT(A43,","))</f>
@@ -5139,9 +5127,9 @@
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44">
         <f>IF(COUNTIF(C44:I44,UI!B$2)=0,"/nope/",ROW(A44)-1)</f>
-        <v>/nope/</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="str" cm="1">
         <f t="array" ref="C44:F44">IF(A44="","",_xlfn.TEXTSPLIT(A44,","))</f>
@@ -5169,9 +5157,9 @@
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45">
         <f>IF(COUNTIF(C45:I45,UI!B$2)=0,"/nope/",ROW(A45)-1)</f>
-        <v>/nope/</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="str" cm="1">
         <f t="array" ref="C45:F45">IF(A45="","",_xlfn.TEXTSPLIT(A45,","))</f>
@@ -5202,9 +5190,9 @@
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46">
         <f>IF(COUNTIF(C46:I46,UI!B$2)=0,"/nope/",ROW(A46)-1)</f>
-        <v>/nope/</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="str" cm="1">
         <f t="array" ref="C46:F46">IF(A46="","",_xlfn.TEXTSPLIT(A46,","))</f>
@@ -5385,9 +5373,9 @@
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="str">
         <f>IF(COUNTIF(C52:I52,UI!B$2)=0,"/nope/",ROW(A52)-1)</f>
-        <v>51</v>
+        <v>/nope/</v>
       </c>
       <c r="C52" s="1" t="str" cm="1">
         <f t="array" ref="C52:F52">IF(A52="","",_xlfn.TEXTSPLIT(A52,","))</f>
@@ -5418,9 +5406,9 @@
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="str">
         <f>IF(COUNTIF(C53:I53,UI!B$2)=0,"/nope/",ROW(A53)-1)</f>
-        <v>52</v>
+        <v>/nope/</v>
       </c>
       <c r="C53" s="1" t="str" cm="1">
         <f t="array" ref="C53:F53">IF(A53="","",_xlfn.TEXTSPLIT(A53,","))</f>
